--- a/test/test_fmt_ents.xlsx
+++ b/test/test_fmt_ents.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ualbertaca-my.sharepoint.com/personal/hqiu1_ualberta_ca/Documents/Coding/NLP Tools/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_7A31F4BA87605A6603B83011595ED87656CF7A15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_7B09F6B38760DB55CBFA2011595ED87656CFA094" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1536722C-0F4C-4537-8F25-160BCA18C9D9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$40</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -77,7 +80,7 @@
     <t>[[" Serum thioredoxin concentrations ", " In-hospital major adverse events (IMAEs) ", " 108 "]]</t>
   </si>
   <si>
-    <t>[[["serum", "thioredoxin concentration"], ["imaes"]]]</t>
+    <t>[{"factor": ["serum", "thioredoxin concentration"], "outcome": ["imaes"]}]</t>
   </si>
   <si>
     <t>Prognostic model for patients with traumatic brain injuries and abnormal computed tomography scans.</t>
@@ -105,7 +108,7 @@
     <t>[[" TBI ", " Mortality ", " 1275 "], [" Age ", " Mortality ", " 1275 "], [" Glasgow Coma Scale ", " Mortality ", " 1275 "], [" Marshall Scale ", " Mortality ", " 1275 "], [" Anysochoria ", " Mortality ", " 1275 "]]</t>
   </si>
   <si>
-    <t>[[["tbi"], ["mortality"]], [["age"], ["mortality"]], [["glasgow coma scale"], ["mortality"]], [[], ["mortality"]], [["anysochoria"], ["mortality"]]]</t>
+    <t>[{"factor": ["tbi"], "outcome": ["mortality"]}, {"factor": ["age"], "outcome": ["mortality"]}, {"factor": ["glasgow coma scale"], "outcome": ["mortality"]}, {"factor": [], "outcome": ["mortality"]}, {"factor": ["anysochoria"], "outcome": ["mortality"]}]</t>
   </si>
   <si>
     <t>Serum macrophage migration inhibitory factor concentrations correlate with prognosis of traumatic brain injury.</t>
@@ -133,7 +136,7 @@
     <t>[[" MIF ", " Inflammation, severity, in-hospital major adverse events, long-term clinical outcome ", " 108 "]]</t>
   </si>
   <si>
-    <t>[[["mif"], ["severity", "inflammation", "clinical outcome", "in-hospital major adverse event", "long-term"]]]</t>
+    <t>[{"factor": ["mif"], "outcome": ["in-hospital major adverse event", "long-term", "clinical outcome", "severity", "inflammation"]}]</t>
   </si>
   <si>
     <t>A prospective outcome study observing patients with severe traumatic brain injury over 10-15 years.</t>
@@ -161,7 +164,7 @@
     <t>[[" Glasgow coma scale score ", " Glasgow Outcome Scale (GOS) ", " 95 "], [" Standard mortality rate (SMR) ", " Mortality rate ", " 34/95 "], [" GOS at 1-year ", " GOS 10-15 years post-trauma ", " Good (GOS 4-5): 68&lt;br&gt;Poor (GOS 2-3): 27 "]]</t>
   </si>
   <si>
-    <t>[[["glasgow coma scale score"], ["gos"]], [["standard", "mortality rate", "smr"], ["mortality rate"]], [["gos"], ["years", "post-trauma", "gos"]]]</t>
+    <t>[{"factor": ["glasgow coma scale score"], "outcome": ["gos"]}, {"factor": ["smr", "mortality rate", "standard"], "outcome": ["mortality rate"]}, {"factor": ["gos"], "outcome": ["years", "post-trauma", "gos"]}]</t>
   </si>
   <si>
     <t>Is It Reliable to Predict the Outcome of Elderly Patients with Severe Traumatic Brain Injury Using the IMPACT Prognostic Calculator?.</t>
@@ -189,7 +192,7 @@
     <t>[[" The International Mission for Prognosis and Analysis of Clinical Trials in TBI (IMPACT) prognostic model ", " The prognosis for elderly patients with severe TBI ", " 137 "]]</t>
   </si>
   <si>
-    <t>[[["tbi", "analysis", "prognostic model", "international mission", "impact", "prognosis", "clinical trial"], ["tbi", "patient", "prognosis", "severe", "elderly"]]]</t>
+    <t>[{"factor": ["analysis", "impact", "prognostic model", "prognosis", "international mission", "clinical trial", "tbi"], "outcome": ["severe", "prognosis", "patient", "tbi", "elderly"]}]</t>
   </si>
   <si>
     <t>[Predictors of the recovery of cognitive functions in patients with traumatic brain injury].</t>
@@ -217,7 +220,7 @@
     <t>[[" Time post-TBI ", " Cognitive functionality gain percentage ", " 58 "], [" Cognitive functions at admission ", " Cognitive functionality gain percentage ", " 58 "]]</t>
   </si>
   <si>
-    <t>[[["time post-tbi"], ["cognitive functionality gain", "percentage"]], [["admission", "cognitive function"], ["cognitive functionality gain", "percentage"]]]</t>
+    <t>[{"factor": ["time post-tbi"], "outcome": ["percentage", "cognitive functionality gain"]}, {"factor": ["admission", "cognitive function"], "outcome": ["percentage", "cognitive functionality gain"]}]</t>
   </si>
   <si>
     <t>Early CT findings to predict early death in patients with traumatic brain injury: Marshall and Rotterdam CT scoring systems compared in the major academic tertiary care hospital in northeastern Japan.</t>
@@ -245,7 +248,7 @@
     <t>[[" Computed tomography (CT) ", " Death at hospital discharge ", " 245 "], [" Marshall and Rotterdam scoring systems ", " Death at hospital discharge ", " 245 "], [" Basal cistern absence ", " Death at hospital discharge ", " 245 "], [" Positive midline shift ", " Death at hospital discharge ", " 245 "], [" Hemorrhagic mass volume ", " Death at hospital discharge ", " 245 "], [" Intraventricular or subarachnoid hemorrhage ", " Death at hospital discharge ", " 245 "]]</t>
   </si>
   <si>
-    <t>[[["ct"], ["death"]], [["marshall and rotterdam scoring system"], ["death"]], [["basal cistern absence"], ["death"]], [["positive midline shift"], ["death"]], [["hemorrhagic mass"], ["death"]], [["intraventricular", "subarachnoid hemorrhage"], ["death"]]]</t>
+    <t>[{"factor": ["ct"], "outcome": ["death"]}, {"factor": ["marshall and rotterdam scoring system"], "outcome": ["death"]}, {"factor": ["basal cistern absence"], "outcome": ["death"]}, {"factor": ["positive midline shift"], "outcome": ["death"]}, {"factor": ["hemorrhagic mass"], "outcome": ["death"]}, {"factor": ["subarachnoid hemorrhage", "intraventricular"], "outcome": ["death"]}]</t>
   </si>
   <si>
     <t>Predicting six-month mortality of patients with traumatic brain injury: usefulness of common intensive care severity scores.</t>
@@ -273,7 +276,7 @@
     <t>[[" APACHE II ", " Six-month mortality of ICU-treated patients with TBI ", " 1,625 "], [" SAPS II ", " Six-month mortality of ICU-treated patients with TBI ", " 1,625 "], [" SOFA ", " Six-month mortality of ICU-treated patients with TBI ", " 1,625 "], [" Age ", " Six-month mortality of ICU-treated patients with TBI ", " 1,625 "], [" Glasgow Coma Scale ", " Six-month mortality of ICU-treated patients with TBI ", " 1,625 "]]</t>
   </si>
   <si>
-    <t>[[["apache ii"], ["tbi", "patient", "mortality", "six-month", "icu-treated"]], [["sap ii"], ["tbi", "patient", "mortality", "six-month", "icu-treated"]], [["sofa"], ["tbi", "patient", "mortality", "six-month", "icu-treated"]], [["age"], ["tbi", "patient", "mortality", "six-month", "icu-treated"]], [["glasgow coma scale"], ["tbi", "patient", "mortality", "six-month", "icu-treated"]]]</t>
+    <t>[{"factor": ["apache ii"], "outcome": ["icu-treated", "patient", "mortality", "tbi", "six-month"]}, {"factor": ["sap ii"], "outcome": ["icu-treated", "patient", "mortality", "tbi", "six-month"]}, {"factor": ["sofa"], "outcome": ["icu-treated", "patient", "mortality", "tbi", "six-month"]}, {"factor": ["age"], "outcome": ["icu-treated", "patient", "mortality", "tbi", "six-month"]}, {"factor": ["glasgow coma scale"], "outcome": ["icu-treated", "patient", "mortality", "tbi", "six-month"]}]</t>
   </si>
   <si>
     <t>18FDG-PET/CT in traumatic brain injury patients: the relative hypermetabolism of vermis cerebelli as a medium and long term predictor of outcome.</t>
@@ -301,7 +304,7 @@
     <t>[[" V/C ratio ", " DRS score, LCF score, GOS score ", " 105 "]]</t>
   </si>
   <si>
-    <t>[[["v/c ratio"], ["gos score", "drs", "lcf score"]]]</t>
+    <t>[{"factor": ["v/c ratio"], "outcome": ["gos score", "drs", "lcf score"]}]</t>
   </si>
   <si>
     <t>Association between serum tissue inhibitor of matrix metalloproteinase-1 levels and mortality in patients with severe brain trauma injury.</t>
@@ -329,7 +332,7 @@
     <t>[[" Serum TIMP-1 levels ", " 30-day mortality ", " 100 "]]</t>
   </si>
   <si>
-    <t>[[["serum", "timp-1 level"], ["mortality"]]]</t>
+    <t>[{"factor": ["serum", "timp-1 level"], "outcome": ["mortality"]}]</t>
   </si>
   <si>
     <t>Diffusion tensor imaging for outcome prediction in mild traumatic brain injury: a TRACK-TBI study.</t>
@@ -357,7 +360,7 @@
     <t>[[" MRI evidence for contusion ", " 3-month Glasgow Outcome Scale-Extended (GOS-E) ", " 76 "], [" &gt;=1 ROI with severely reduced FA ", " 3-month GOS-E ", " 76 "], [" Neuropsychiatric history ", " 3-month GOS-E ", " 76 "], [" Age ", " 3-month GOS-E ", " 76 "], [" Years of education ", " 3-month GOS-E ", " 76 "], [" &gt;=1 ROI with severely reduced FA ", " 6-month GOS-E ", " 76 "], [" Neuropsychiatric history ", " 6-month GOS-E ", " 76 "], [" Years of education ", " 6-month GOS-E ", " 76 "]]</t>
   </si>
   <si>
-    <t>[[["evidence", "mri", "contusion"], ["gos-e"]], [["reduce", "fa", "roi", "severely"], ["gos-e"]], [["neuropsychiatric history"], ["gos-e"]], [["age"], ["gos-e"]], [["year of"], ["gos-e"]], [["reduce", "fa", "roi", "severely"], ["gos-e"]], [["neuropsychiatric history"], ["gos-e"]], [["year of"], ["gos-e"]]]</t>
+    <t>[{"factor": ["evidence", "mri", "contusion"], "outcome": ["gos-e"]}, {"factor": ["roi", "reduce", "fa", "severely"], "outcome": ["gos-e"]}, {"factor": ["neuropsychiatric history"], "outcome": ["gos-e"]}, {"factor": ["age"], "outcome": ["gos-e"]}, {"factor": ["year of"], "outcome": ["gos-e"]}, {"factor": ["roi", "reduce", "fa", "severely"], "outcome": ["gos-e"]}, {"factor": ["neuropsychiatric history"], "outcome": ["gos-e"]}, {"factor": ["year of"], "outcome": ["gos-e"]}]</t>
   </si>
   <si>
     <t>Relationship of preinjury depressive symptoms to outcomes 3 mos after complicated and uncomplicated mild traumatic brain injury.</t>
@@ -385,7 +388,7 @@
     <t>[[" Preinjury depressive symptoms ", " Affective and behavioral problems ", " 177 "], [" Preinjury depressive symptoms ", " Cognitive problems ", " 177 "], [" Preinjury depressive symptoms ", " Mental health-related quality-of-life ", " 177 "]]</t>
   </si>
   <si>
-    <t>[[["preinjury", "depressive symptom"], ["problem", "affective", "behavioral"]], [["preinjury", "depressive symptom"], ["cognitive problem"]], [["preinjury", "depressive symptom"], ["mental health-related quality-of-life"]]]</t>
+    <t>[{"factor": ["preinjury", "depressive symptom"], "outcome": ["affective", "behavioral", "problem"]}, {"factor": ["preinjury", "depressive symptom"], "outcome": ["cognitive problem"]}, {"factor": ["preinjury", "depressive symptom"], "outcome": ["mental health-related quality-of-life"]}]</t>
   </si>
   <si>
     <t>Long-term outcome in elderly patients after operation for traumatic intracranial hemorrhage.</t>
@@ -413,7 +416,7 @@
     <t>[[" Age ", " Unfavorable outcome ", " 164 "], [" Admission GCS ", "  ", " 164 "], [" Mechanism of injury ", "  ", " 164 "], [" ISS ", "  ", " 164 "], [" Head AIS ", "  ", " 164 "], [" Type of operation ", "  ", " 164 "], [" Hemorrhage acuity ", "  ", " 164 "], [" Time to operation ", "  ", " 164 "], [" Pre-hospital warfarin or clopidogrel ", "  ", " 164 "], [" In-hospital death ", "  ", " 164 "]]</t>
   </si>
   <si>
-    <t>[[["age"], ["outcome", "unfavorable"]], [["gcs", "admission"], []], [["mechanism", "injury"], []], [["iss"], []], [["ais", "head"], []], [["operation", "type"], []], [["hemorrhage acuity"], []], [["time", "operation"], []], [["pre-hospital", "warfarin", "clopidogrel"], []], [["in-hospital death"], []]]</t>
+    <t>[{"factor": ["age"], "outcome": ["outcome", "unfavorable"]}, {"factor": ["admission", "gcs"], "outcome": []}, {"factor": ["injury", "mechanism"], "outcome": []}, {"factor": ["iss"], "outcome": []}, {"factor": ["ais", "head"], "outcome": []}, {"factor": ["type", "operation"], "outcome": []}, {"factor": ["hemorrhage acuity"], "outcome": []}, {"factor": ["operation", "time"], "outcome": []}, {"factor": ["warfarin", "clopidogrel", "pre-hospital"], "outcome": []}, {"factor": ["in-hospital death"], "outcome": []}]</t>
   </si>
   <si>
     <t>A systematic review of age and gender factors in prolonged post-concussion symptoms after mild head injury.</t>
@@ -441,7 +444,7 @@
     <t>[[" Older age ", " Poorer outcome ", " 2/5 studies "], [" Female gender ", " Poorer outcome ", " 5/6 studies "]]</t>
   </si>
   <si>
-    <t>[[["old age"], ["poor"]], [["female gender"], ["poor"]]]</t>
+    <t>[{"factor": ["old age"], "outcome": ["poor"]}, {"factor": ["female gender"], "outcome": ["poor"]}]</t>
   </si>
   <si>
     <t>Trends and outcome predictors after traumatic brain injury surgery: a nationwide population-based study in Taiwan.</t>
@@ -469,7 +472,7 @@
     <t>[[" Age ", " TBI surgery outcomes ", " 18,286 "], [" Sex ", " TBI surgery outcomes ", " 18,286 "], [" Deyo-Charlson comorbidity index score ", " TBI surgery outcomes ", " 18,286 "], [" Hospital volume ", " TBI surgery outcomes ", " 18,286 "], [" Surgeon volume ", " TBI surgery outcomes ", " 18,286 "]]</t>
   </si>
   <si>
-    <t>[[["age"], ["tbi", "outcome", "surgery"]], [["sex"], ["tbi", "outcome", "surgery"]], [["score", "deyo-charlson comorbidity index"], ["tbi", "outcome", "surgery"]], [["hospital volume"], ["tbi", "outcome", "surgery"]], [["surgeon", "volume"], ["tbi", "outcome", "surgery"]]]</t>
+    <t>[{"factor": ["age"], "outcome": ["surgery", "outcome", "tbi"]}, {"factor": ["sex"], "outcome": ["surgery", "outcome", "tbi"]}, {"factor": ["score", "deyo-charlson comorbidity index"], "outcome": ["surgery", "outcome", "tbi"]}, {"factor": ["hospital volume"], "outcome": ["surgery", "outcome", "tbi"]}, {"factor": ["volume", "surgeon"], "outcome": ["surgery", "outcome", "tbi"]}]</t>
   </si>
   <si>
     <t>Effect of demographic and injury etiologic factors on intensive care unit mortality after severe head injury in a low middle income country.</t>
@@ -497,7 +500,7 @@
     <t>[[" Age ", " ICU mortality ", " 231 "], [" Gender ", " ICU mortality ", " 231 "], [" Injury etiology ", " ICU mortality ", " 231 "]]</t>
   </si>
   <si>
-    <t>[[["age"], ["mortality", "icu"]], [["gender"], ["mortality", "icu"]], [["etiology", "injury"], ["mortality", "icu"]]]</t>
+    <t>[{"factor": ["age"], "outcome": ["mortality", "icu"]}, {"factor": ["gender"], "outcome": ["mortality", "icu"]}, {"factor": ["etiology", "injury"], "outcome": ["mortality", "icu"]}]</t>
   </si>
   <si>
     <t>CSF and plasma amyloid-beta temporal profiles and relationships with neurological status and mortality after severe traumatic brain injury.</t>
@@ -525,7 +528,7 @@
     <t>[[" Amyloid-beta1-42 (Abeta42) concentrations in cerebrospinal fluid (CSF) ", " Mortality ", " TBI patients "], [" Amyloid-beta1-42 (Abeta42) concentrations in plasma ", " Mortality ", " TBI patients "], [" Changes in CSF Abeta42 concentrations ", " Neurological status ", " TBI patients "]]</t>
   </si>
   <si>
-    <t>[[["csf", "concentration"], ["mortality"]], [["plasma", "concentration"], ["mortality"]], [["csf", "change", "concentration", "abeta42"], ["neurological status"]]]</t>
+    <t>[{"factor": ["csf", "concentration"], "outcome": ["mortality"]}, {"factor": ["concentration", "plasma"], "outcome": ["mortality"]}, {"factor": ["abeta42", "csf", "concentration", "change"], "outcome": ["neurological status"]}]</t>
   </si>
   <si>
     <t>Diagnostic and prognostic significance of suPAR in traumatic brain injury.</t>
@@ -553,7 +556,7 @@
     <t>[[" Soluble urokinase plasminogen activator receptor (suPAR) ", " Traumatic brain injury (TBI) ", " 112 "]]</t>
   </si>
   <si>
-    <t>[[["soluble", "urokinase", "supar", "plasminogen activator receptor"], ["tbi"]]]</t>
+    <t>[{"factor": ["soluble", "plasminogen activator receptor", "supar", "urokinase"], "outcome": ["tbi"]}]</t>
   </si>
   <si>
     <t>Performance of IMPACT, CRASH and Nijmegen models in predicting six month outcome of patients with severe or moderate TBI: an external validation study.</t>
@@ -581,7 +584,7 @@
     <t>[[" IMPACT core and extended models ", " six month unfavourable outcome ", " 778 "], [" CRASH basic models ", " six month unfavourable outcome ", " 778 "], [" Nijmegen models ", " six month unfavourable outcome ", " 778 "], [" IMPACT core and extended models ", " six month mortality ", " 778 "], [" CRASH basic models ", " six month mortality ", " 778 "], [" Nijmegen models ", " six month mortality ", " 778 "]]</t>
   </si>
   <si>
-    <t>[[["model", "core", "impact", "extend"], ["month", "outcome"]], [["crash", "basic model"], ["month", "outcome"]], [["nijmegen model"], ["month", "outcome"]], [["model", "core", "impact", "extend"], ["month", "mortality"]], [["crash", "basic model"], ["month", "mortality"]], [["nijmegen model"], ["month", "mortality"]]]</t>
+    <t>[{"factor": ["extend", "model", "core", "impact"], "outcome": ["outcome", "month"]}, {"factor": ["basic model", "crash"], "outcome": ["outcome", "month"]}, {"factor": ["nijmegen model"], "outcome": ["outcome", "month"]}, {"factor": ["extend", "model", "core", "impact"], "outcome": ["mortality", "month"]}, {"factor": ["basic model", "crash"], "outcome": ["mortality", "month"]}, {"factor": ["nijmegen model"], "outcome": ["mortality", "month"]}]</t>
   </si>
   <si>
     <t>Predictors of deterioration indicating a requirement for surgery in mild to moderate traumatic brain injury.</t>
@@ -609,7 +612,7 @@
     <t>[[" Coagulopathy and abnormal fibrinolysis ", " Deterioration requiring surgery in mild to moderate traumatic brain injury ", " 54 "]]</t>
   </si>
   <si>
-    <t>[[["abnormal", "coagulopathy", "fibrinolysis"], ["traumatic brain injury", "deterioration", "surgery"]]]</t>
+    <t>[{"factor": ["coagulopathy", "abnormal", "fibrinolysis"], "outcome": ["surgery", "deterioration", "traumatic brain injury"]}]</t>
   </si>
   <si>
     <t>Long-term outcome prediction after a traumatic brain injury using early somatosensory and acoustic evoked potentials: analysis of the predictive value of the different single components of the potentials.</t>
@@ -637,7 +640,7 @@
     <t>[[" Central conduction time (CCT) ", " Long-term clinical outcome ", " 100 "], [" Latency of wave N20 ", " Long-term clinical outcome ", " 100 "]]</t>
   </si>
   <si>
-    <t>[[["cct", "central conduction time"], ["clinical outcome", "long-term"]], [["latency"], ["clinical outcome", "long-term"]]]</t>
+    <t>[{"factor": ["cct", "central conduction time"], "outcome": ["long-term", "clinical outcome"]}, {"factor": ["latency"], "outcome": ["long-term", "clinical outcome"]}]</t>
   </si>
   <si>
     <t>The association between admission systolic blood pressure and mortality in significant traumatic brain injury: a multi-centre cohort study.</t>
@@ -665,7 +668,7 @@
     <t>[[" Systolic blood pressure (SBP) ", " Mortality ", " 5057 "]]</t>
   </si>
   <si>
-    <t>[[["sbp"], ["mortality"]]]</t>
+    <t>[{"factor": ["sbp"], "outcome": ["mortality"]}]</t>
   </si>
   <si>
     <t>Patient-specific thresholds of intracranial pressure in severe traumatic brain injury.</t>
@@ -693,7 +696,7 @@
     <t>[[" D20 ", " Death ", " 327 "], [" D25 ", " Death ", " 327 "], [" DPRx ", " Death ", " 327 "]]</t>
   </si>
   <si>
-    <t>[[["d20"], ["death"]], [["d25"], ["death"]], [["dprx"], ["death"]]]</t>
+    <t>[{"factor": ["d20"], "outcome": ["death"]}, {"factor": ["d25"], "outcome": ["death"]}, {"factor": ["dprx"], "outcome": ["death"]}]</t>
   </si>
   <si>
     <t>Plasma thrombospondin-1 and clinical outcomes in traumatic brain injury.</t>
@@ -721,7 +724,7 @@
     <t>[[" TSP-1 levels ", " 1-week mortality ", " 134 "], [" TSP-1 levels ", " 6-month mortality ", " 134 "], [" TSP-1 levels ", " 6-month unfavorable outcome ", " 134 "]]</t>
   </si>
   <si>
-    <t>[[["level", "tsp-1"], ["1-week", "mortality"]], [["level", "tsp-1"], ["mortality"]], [["level", "tsp-1"], ["outcome", "unfavorable"]]]</t>
+    <t>[{"factor": ["tsp-1", "level"], "outcome": ["mortality", "1-week"]}, {"factor": ["tsp-1", "level"], "outcome": ["mortality"]}, {"factor": ["tsp-1", "level"], "outcome": ["outcome", "unfavorable"]}]</t>
   </si>
   <si>
     <t>Plasma brain-derived neurotrophic factor levels after severe traumatic brain injury.</t>
@@ -749,7 +752,7 @@
     <t>[[" Brain-derived neurotrophic factor (BDNF) plasma levels ", " Intensive care unit (ICU) mortality in patients with severe TBI ", " 120 "]]</t>
   </si>
   <si>
-    <t>[[["bdnf", "plasma level"], ["tbi", "patient", "mortality", "severe", "icu"]]]</t>
+    <t>[{"factor": ["bdnf", "plasma level"], "outcome": ["severe", "patient", "mortality", "tbi", "icu"]}]</t>
   </si>
   <si>
     <t>The Application of the CRASH-CT Prognostic Model for Older Adults With Traumatic Brain Injury: A Population-Based Observational Cohort Study.</t>
@@ -777,7 +780,7 @@
     <t>[[" CRASH-CT model ", " Death within 14 days ", " 356 (older) 981 (younger) "]]</t>
   </si>
   <si>
-    <t>[[["crash-ct model"], ["death", "days"]]]</t>
+    <t>[{"factor": ["crash-ct model"], "outcome": ["death", "days"]}]</t>
   </si>
   <si>
     <t>Timing of withdrawal of life-sustaining therapies in severe traumatic brain injury: Impact on overall mortality.</t>
@@ -805,7 +808,7 @@
     <t>[[" Time to death ", " Withdrawal of life-sustaining therapies ", " 17,505 "], [" Center classification ", " Mortality ", " 108 "]]</t>
   </si>
   <si>
-    <t>[[["time to death"], ["withdrawal", "life-sustaining", "therapy"]], [["center", "classification"], ["mortality"]]]</t>
+    <t>[{"factor": ["time to death"], "outcome": ["life-sustaining", "withdrawal", "therapy"]}, {"factor": ["center", "classification"], "outcome": ["mortality"]}]</t>
   </si>
   <si>
     <t>External Validation of the International Mission for Prognosis and Analysis of Clinical Trials in Traumatic Brain Injury: Prognostic Models for Traumatic Brain Injury on the Study of the Neuroprotective Activity of Progesterone in Severe Traumatic Brain I</t>
@@ -833,7 +836,7 @@
     <t>[[" IMPACT prognostic models ", " 6-month mortality and unfavorable outcome in patients with TBI ", " 1124 "]]</t>
   </si>
   <si>
-    <t>[[["impact", "prognostic model"], ["tbi", "patient", "unfavorable outcome", "mortality"]]]</t>
+    <t>[{"factor": ["prognostic model", "impact"], "outcome": ["patient", "mortality", "unfavorable outcome", "tbi"]}]</t>
   </si>
   <si>
     <t>Change of serum levels of thioredoxin in patients with severe traumatic brain injury.</t>
@@ -861,7 +864,7 @@
     <t>[[" Serum TRX concentration ", " 1-week mortality ", " 112 "], [" ", " 6-month mortality ", " 112 "], [" ", " 6-month unfavorable outcome ", " 112 "]]</t>
   </si>
   <si>
-    <t>[[["serum", "concentration", "trx"], ["1-week", "mortality"]], [[], ["mortality"]], [[], ["outcome", "unfavorable"]]]</t>
+    <t>[{"factor": ["serum", "concentration", "trx"], "outcome": ["mortality", "1-week"]}, {"factor": [], "outcome": ["mortality"]}, {"factor": [], "outcome": ["outcome", "unfavorable"]}]</t>
   </si>
   <si>
     <t>Olfactory function in acute traumatic brain injury.</t>
@@ -889,7 +892,7 @@
     <t>[[" Glasgow Coma Scale (GCS) ", " TBI severity ", " 63 "], [" Duration of post-traumatic amnesia (PTA) ", " TBI severity ", " 63 "], [" Assault victim vs. victim of falls or motor vehicle collisions ", " Parosmia score ", " 63 "]]</t>
   </si>
   <si>
-    <t>[[["gcs"], ["tbi", "severity"]], [["duration", "pta"], ["tbi", "severity"]], [["victim of fall", "assault", "victim", "motor vehicle collision"], ["parosmia score"]]]</t>
+    <t>[{"factor": ["gcs"], "outcome": ["severity", "tbi"]}, {"factor": ["duration", "pta"], "outcome": ["severity", "tbi"]}, {"factor": ["assault", "motor vehicle collision", "victim of fall", "victim"], "outcome": ["parosmia score"]}]</t>
   </si>
   <si>
     <t>The effect of brain injury on the inflammatory response following severe trauma.</t>
@@ -917,7 +920,7 @@
     <t>[[" IL-6 levels ", " Development of septic complications ", " 123 "], [" IL-6 levels ", " Development of multiple organ dysfunction ", " 123 "], [" C-reactive protein levels ", " Development of septic complications ", " 123 "], [" C-reactive protein levels ", " Development of multiple organ dysfunction ", " 123 "], [" Leukocyte counts ", " Development of septic complications ", " 123 "], [" Leukocyte counts ", " Development of multiple organ dysfunction ", " 123 "]]</t>
   </si>
   <si>
-    <t>[[["il-6", "level"], ["development", "septic"]], [["il-6", "level"], ["multiple organ dysfunction", "development"]], [["c-reactive protein level"], ["development", "septic"]], [["c-reactive protein level"], ["multiple organ dysfunction", "development"]], [["leukocyte count"], ["development", "septic"]], [["leukocyte count"], ["multiple organ dysfunction", "development"]]]</t>
+    <t>[{"factor": ["il-6", "level"], "outcome": ["septic", "development"]}, {"factor": ["il-6", "level"], "outcome": ["multiple organ dysfunction", "development"]}, {"factor": ["c-reactive protein level"], "outcome": ["septic", "development"]}, {"factor": ["c-reactive protein level"], "outcome": ["multiple organ dysfunction", "development"]}, {"factor": ["leukocyte count"], "outcome": ["septic", "development"]}, {"factor": ["leukocyte count"], "outcome": ["multiple organ dysfunction", "development"]}]</t>
   </si>
   <si>
     <t>The Rotterdam Scoring System Can Be Used as an Independent Factor for Predicting Traumatic Brain Injury Outcomes.</t>
@@ -945,7 +948,7 @@
     <t>[[" Rotterdam score ", " Death within 2 weeks ", " 150 "]]</t>
   </si>
   <si>
-    <t>[[["rotterdam"], ["death", "weeks"]]]</t>
+    <t>[{"factor": ["rotterdam"], "outcome": ["weeks", "death"]}]</t>
   </si>
   <si>
     <t>Can Serum Glucose Level in Early Admission Predict Outcome in Patients with Severe Head Trauma?.</t>
@@ -973,7 +976,7 @@
     <t>[[" Admission serum glucose level ", " In-hospital mortality rate ", " 80 "]]</t>
   </si>
   <si>
-    <t>[[["admission serum glucose level"], ["in-hospital mortality rate"]]]</t>
+    <t>[{"factor": ["admission serum glucose level"], "outcome": ["in-hospital mortality rate"]}]</t>
   </si>
   <si>
     <t>Principal components derived from CSF inflammatory profiles predict outcome in survivors after severe traumatic brain injury.</t>
@@ -1001,7 +1004,7 @@
     <t>[[" PCA of inflammatory mediators after TBI ", " 6-month outcome ", " 111 "]]</t>
   </si>
   <si>
-    <t>[[["tbi", "inflammatory mediator", "pca"], ["outcome"]]]</t>
+    <t>[{"factor": ["inflammatory mediator", "pca", "tbi"], "outcome": ["outcome"]}]</t>
   </si>
   <si>
     <t>Predictors of Outcomes in Traumatic Brain Injury.</t>
@@ -1029,7 +1032,7 @@
     <t>[[" Age ", " Poor outcome ", " 409 "], [" GCS ", " Poor outcome ", " 409 "], [" ISS ", " Poor outcome ", " 409 "], [" Head AIS ", " Poor outcome ", " 409 "], [" Sex ", " Poor outcome ", " 409 "], [" MOT ", " Poor outcome ", " 409 "], [" Lung injury ", " Poor outcome ", " 409 "], [" Lung injury severity ", " Poor outcome ", " 409 "]]</t>
   </si>
   <si>
-    <t>[[["age"], ["poor outcome"]], [["gcs"], ["poor outcome"]], [["iss"], ["poor outcome"]], [["ais", "head"], ["poor outcome"]], [["sex"], ["poor outcome"]], [["mot"], ["poor outcome"]], [["lung injury"], ["poor outcome"]], [["severity", "lung injury"], ["poor outcome"]]]</t>
+    <t>[{"factor": ["age"], "outcome": ["poor outcome"]}, {"factor": ["gcs"], "outcome": ["poor outcome"]}, {"factor": ["iss"], "outcome": ["poor outcome"]}, {"factor": ["ais", "head"], "outcome": ["poor outcome"]}, {"factor": ["sex"], "outcome": ["poor outcome"]}, {"factor": ["mot"], "outcome": ["poor outcome"]}, {"factor": ["lung injury"], "outcome": ["poor outcome"]}, {"factor": ["severity", "lung injury"], "outcome": ["poor outcome"]}]</t>
   </si>
   <si>
     <t>Serum biomarkers as predictors of long-term outcome in severe traumatic brain injury: analysis from a randomized placebo-controlled Phase II clinical trial.</t>
@@ -1057,7 +1060,7 @@
     <t>[[" IL-6 ", " Favorable GOS score at 1 year ", " 86 "], [" Pg ", " Favorable GOS score at 1 year ", " 86 "], [" GFAP ", " Unfavorable GOS score at 1 year ", " 86 "], [" IL-6 ", " Survival status at 1 year ", " 86 "], [" Pg ", " Survival status at 1 year ", " 86 "], [" GFAP ", " Survival status at 1 year ", " 86 "]]</t>
   </si>
   <si>
-    <t>[[["il-6"], ["year", "favorable", "gos"]], [["pg"], ["year", "favorable", "gos"]], [["gfap"], ["score", "year", "unfavorable", "gos"]], [["il-6"], ["survival status", "year"]], [["pg"], ["survival status", "year"]], [["gfap"], ["survival status", "year"]]]</t>
+    <t>[{"factor": ["il-6"], "outcome": ["year", "favorable", "gos"]}, {"factor": ["pg"], "outcome": ["year", "favorable", "gos"]}, {"factor": ["gfap"], "outcome": ["unfavorable", "year", "score", "gos"]}, {"factor": ["il-6"], "outcome": ["year", "survival status"]}, {"factor": ["pg"], "outcome": ["year", "survival status"]}, {"factor": ["gfap"], "outcome": ["year", "survival status"]}]</t>
   </si>
   <si>
     <t>Diffusion tensor imaging in acute-to-subacute traumatic brain injury: a longitudinal analysis.</t>
@@ -1085,7 +1088,7 @@
     <t>[[" Acute FA ", " DRS score ", " 11 "], [" Subacute FA ", " DRS score ", " 11 "]]</t>
   </si>
   <si>
-    <t>[[["acute"], ["score", "drs"]], [["fa", "subacute"], ["score", "drs"]]]</t>
+    <t>[{"factor": ["acute"], "outcome": ["score", "drs"]}, {"factor": ["fa", "subacute"], "outcome": ["score", "drs"]}]</t>
   </si>
   <si>
     <t>Complications following hospital admission for traumatic brain injury: A multicenter cohort study.</t>
@@ -1113,7 +1116,7 @@
     <t>[[" Mechanical ventilation ", " Neurological complications ", " 12,887 "], [" Head injury severity ", " Neurological complications ", " 12,887 "], [" Blood transfusion ", " Neurological complications ", " 12,887 "], [" Neurosurgical intervention ", " Neurological complications ", " 12,887 "], [" Mechanical ventilation ", " Non-neurological complications ", " 12,887 "], [" Glasgow Coma Scale ", " Non-neurological complications ", " 12,887 "], [" Blood transfusion ", " Non-neurological complications ", " 12,887 "], [" Concomitant injuries ", " Non-neurological complications ", " 12,887 "]]</t>
   </si>
   <si>
-    <t>[[["mechanical ventilation"], ["neurological"]], [["severity", "head injury"], ["neurological"]], [["blood transfusion"], ["neurological"]], [["neurosurgical intervention"], ["neurological"]], [["mechanical ventilation"], ["non-neurological", "complication"]], [["glasgow coma scale"], ["non-neurological", "complication"]], [["blood transfusion"], ["non-neurological", "complication"]], [["concomitant", "injury"], ["non-neurological", "complication"]]]</t>
+    <t>[{"factor": ["mechanical ventilation"], "outcome": ["neurological"]}, {"factor": ["severity", "head injury"], "outcome": ["neurological"]}, {"factor": ["blood transfusion"], "outcome": ["neurological"]}, {"factor": ["neurosurgical intervention"], "outcome": ["neurological"]}, {"factor": ["mechanical ventilation"], "outcome": ["non-neurological", "complication"]}, {"factor": ["glasgow coma scale"], "outcome": ["non-neurological", "complication"]}, {"factor": ["blood transfusion"], "outcome": ["non-neurological", "complication"]}, {"factor": ["injury", "concomitant"], "outcome": ["non-neurological", "complication"]}]</t>
   </si>
   <si>
     <t>Management and outcome of traumatic brain injury patients at Muhimbili Orthopaedic Institute Dar es Salaam, Tanzania.</t>
@@ -1141,7 +1144,7 @@
     <t>[[" Traumatic brain injury ", " Mortality ", " 627 "]]</t>
   </si>
   <si>
-    <t>[[["traumatic brain injury"], ["mortality"]]]</t>
+    <t>[{"factor": ["traumatic brain injury"], "outcome": ["mortality"]}]</t>
   </si>
 </sst>
 </file>
@@ -1506,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2688,6 +2691,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J40" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/test/test_fmt_ents.xlsx
+++ b/test/test_fmt_ents.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="11_7B09F6B38760DB55CBFA2011595ED87656CFA094" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1536722C-0F4C-4537-8F25-160BCA18C9D9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="1608" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1509,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="G19" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/test/test_fmt_ents.xlsx
+++ b/test/test_fmt_ents.xlsx
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ualbertaca-my.sharepoint.com/personal/hqiu1_ualberta_ca/Documents/Coding/NLP Tools/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_7B09F6B38760DB55CBFA2011595ED87656CFA094" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1536722C-0F4C-4537-8F25-160BCA18C9D9}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_549195AD8700D51753BA3B11595ED87656CF05E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90504FAA-83C5-46D0-A4DD-8460C847C4B9}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="1608" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$40</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="200">
   <si>
     <t>Unnamed: 0.1</t>
   </si>
@@ -80,7 +77,7 @@
     <t>[[" Serum thioredoxin concentrations ", " In-hospital major adverse events (IMAEs) ", " 108 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["serum", "thioredoxin concentration"], "outcome": ["imaes"]}]</t>
+    <t>[{"factor": ["thioredoxin concentration", "serum"], "outcome": ["imaes", "in-hospital major adverse event"]}]</t>
   </si>
   <si>
     <t>Prognostic model for patients with traumatic brain injuries and abnormal computed tomography scans.</t>
@@ -136,7 +133,7 @@
     <t>[[" MIF ", " Inflammation, severity, in-hospital major adverse events, long-term clinical outcome ", " 108 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["mif"], "outcome": ["in-hospital major adverse event", "long-term", "clinical outcome", "severity", "inflammation"]}]</t>
+    <t>[{"factor": ["mif"], "outcome": ["in-hospital major adverse event", "inflammation", "severity", "clinical outcome", "long-term"]}]</t>
   </si>
   <si>
     <t>A prospective outcome study observing patients with severe traumatic brain injury over 10-15 years.</t>
@@ -164,7 +161,7 @@
     <t>[[" Glasgow coma scale score ", " Glasgow Outcome Scale (GOS) ", " 95 "], [" Standard mortality rate (SMR) ", " Mortality rate ", " 34/95 "], [" GOS at 1-year ", " GOS 10-15 years post-trauma ", " Good (GOS 4-5): 68&lt;br&gt;Poor (GOS 2-3): 27 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["glasgow coma scale score"], "outcome": ["gos"]}, {"factor": ["smr", "mortality rate", "standard"], "outcome": ["mortality rate"]}, {"factor": ["gos"], "outcome": ["years", "post-trauma", "gos"]}]</t>
+    <t>[{"factor": ["glasgow coma scale score"], "outcome": ["glasgow outcome scale", "gos"]}, {"factor": ["mortality rate", "standard", "smr"], "outcome": ["mortality rate"]}, {"factor": ["gos"], "outcome": ["post-trauma", "years", "gos"]}]</t>
   </si>
   <si>
     <t>Is It Reliable to Predict the Outcome of Elderly Patients with Severe Traumatic Brain Injury Using the IMPACT Prognostic Calculator?.</t>
@@ -192,7 +189,7 @@
     <t>[[" The International Mission for Prognosis and Analysis of Clinical Trials in TBI (IMPACT) prognostic model ", " The prognosis for elderly patients with severe TBI ", " 137 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["analysis", "impact", "prognostic model", "prognosis", "international mission", "clinical trial", "tbi"], "outcome": ["severe", "prognosis", "patient", "tbi", "elderly"]}]</t>
+    <t>[{"factor": ["analysis", "tbi", "prognostic model", "impact", "prognosis", "clinical trial", "international mission"], "outcome": ["tbi", "elderly", "prognosis", "patient", "severe"]}]</t>
   </si>
   <si>
     <t>[Predictors of the recovery of cognitive functions in patients with traumatic brain injury].</t>
@@ -248,7 +245,7 @@
     <t>[[" Computed tomography (CT) ", " Death at hospital discharge ", " 245 "], [" Marshall and Rotterdam scoring systems ", " Death at hospital discharge ", " 245 "], [" Basal cistern absence ", " Death at hospital discharge ", " 245 "], [" Positive midline shift ", " Death at hospital discharge ", " 245 "], [" Hemorrhagic mass volume ", " Death at hospital discharge ", " 245 "], [" Intraventricular or subarachnoid hemorrhage ", " Death at hospital discharge ", " 245 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["ct"], "outcome": ["death"]}, {"factor": ["marshall and rotterdam scoring system"], "outcome": ["death"]}, {"factor": ["basal cistern absence"], "outcome": ["death"]}, {"factor": ["positive midline shift"], "outcome": ["death"]}, {"factor": ["hemorrhagic mass"], "outcome": ["death"]}, {"factor": ["subarachnoid hemorrhage", "intraventricular"], "outcome": ["death"]}]</t>
+    <t>[{"factor": ["ct", "compute tomography"], "outcome": ["death"]}, {"factor": ["marshall and rotterdam scoring system"], "outcome": ["death"]}, {"factor": ["basal cistern absence"], "outcome": ["death"]}, {"factor": ["positive midline shift"], "outcome": ["death"]}, {"factor": ["hemorrhagic mass"], "outcome": ["death"]}, {"factor": ["intraventricular", "subarachnoid hemorrhage"], "outcome": ["death"]}]</t>
   </si>
   <si>
     <t>Predicting six-month mortality of patients with traumatic brain injury: usefulness of common intensive care severity scores.</t>
@@ -276,7 +273,7 @@
     <t>[[" APACHE II ", " Six-month mortality of ICU-treated patients with TBI ", " 1,625 "], [" SAPS II ", " Six-month mortality of ICU-treated patients with TBI ", " 1,625 "], [" SOFA ", " Six-month mortality of ICU-treated patients with TBI ", " 1,625 "], [" Age ", " Six-month mortality of ICU-treated patients with TBI ", " 1,625 "], [" Glasgow Coma Scale ", " Six-month mortality of ICU-treated patients with TBI ", " 1,625 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["apache ii"], "outcome": ["icu-treated", "patient", "mortality", "tbi", "six-month"]}, {"factor": ["sap ii"], "outcome": ["icu-treated", "patient", "mortality", "tbi", "six-month"]}, {"factor": ["sofa"], "outcome": ["icu-treated", "patient", "mortality", "tbi", "six-month"]}, {"factor": ["age"], "outcome": ["icu-treated", "patient", "mortality", "tbi", "six-month"]}, {"factor": ["glasgow coma scale"], "outcome": ["icu-treated", "patient", "mortality", "tbi", "six-month"]}]</t>
+    <t>[{"factor": ["apache ii"], "outcome": ["six-month", "tbi", "mortality", "patient", "icu-treated"]}, {"factor": ["sap ii"], "outcome": ["six-month", "tbi", "mortality", "patient", "icu-treated"]}, {"factor": ["sofa"], "outcome": ["six-month", "tbi", "mortality", "patient", "icu-treated"]}, {"factor": ["age"], "outcome": ["six-month", "tbi", "mortality", "patient", "icu-treated"]}, {"factor": ["glasgow coma scale"], "outcome": ["six-month", "tbi", "mortality", "patient", "icu-treated"]}]</t>
   </si>
   <si>
     <t>18FDG-PET/CT in traumatic brain injury patients: the relative hypermetabolism of vermis cerebelli as a medium and long term predictor of outcome.</t>
@@ -304,7 +301,7 @@
     <t>[[" V/C ratio ", " DRS score, LCF score, GOS score ", " 105 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["v/c ratio"], "outcome": ["gos score", "drs", "lcf score"]}]</t>
+    <t>[{"factor": ["v/c ratio"], "outcome": ["drs", "lcf score", "gos score"]}]</t>
   </si>
   <si>
     <t>Association between serum tissue inhibitor of matrix metalloproteinase-1 levels and mortality in patients with severe brain trauma injury.</t>
@@ -332,7 +329,7 @@
     <t>[[" Serum TIMP-1 levels ", " 30-day mortality ", " 100 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["serum", "timp-1 level"], "outcome": ["mortality"]}]</t>
+    <t>[{"factor": ["timp-1 level", "serum"], "outcome": ["mortality"]}]</t>
   </si>
   <si>
     <t>Diffusion tensor imaging for outcome prediction in mild traumatic brain injury: a TRACK-TBI study.</t>
@@ -360,7 +357,7 @@
     <t>[[" MRI evidence for contusion ", " 3-month Glasgow Outcome Scale-Extended (GOS-E) ", " 76 "], [" &gt;=1 ROI with severely reduced FA ", " 3-month GOS-E ", " 76 "], [" Neuropsychiatric history ", " 3-month GOS-E ", " 76 "], [" Age ", " 3-month GOS-E ", " 76 "], [" Years of education ", " 3-month GOS-E ", " 76 "], [" &gt;=1 ROI with severely reduced FA ", " 6-month GOS-E ", " 76 "], [" Neuropsychiatric history ", " 6-month GOS-E ", " 76 "], [" Years of education ", " 6-month GOS-E ", " 76 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["evidence", "mri", "contusion"], "outcome": ["gos-e"]}, {"factor": ["roi", "reduce", "fa", "severely"], "outcome": ["gos-e"]}, {"factor": ["neuropsychiatric history"], "outcome": ["gos-e"]}, {"factor": ["age"], "outcome": ["gos-e"]}, {"factor": ["year of"], "outcome": ["gos-e"]}, {"factor": ["roi", "reduce", "fa", "severely"], "outcome": ["gos-e"]}, {"factor": ["neuropsychiatric history"], "outcome": ["gos-e"]}, {"factor": ["year of"], "outcome": ["gos-e"]}]</t>
+    <t>[{"factor": ["evidence", "contusion", "mri"], "outcome": ["glasgow outcome scale-extended", "gos-e"]}, {"factor": ["severely", "roi", "fa", "reduce"], "outcome": ["gos-e"]}, {"factor": ["neuropsychiatric history"], "outcome": ["gos-e"]}, {"factor": ["age"], "outcome": ["gos-e"]}, {"factor": ["year of"], "outcome": ["gos-e"]}, {"factor": ["severely", "roi", "fa", "reduce"], "outcome": ["gos-e"]}, {"factor": ["neuropsychiatric history"], "outcome": ["gos-e"]}, {"factor": ["year of"], "outcome": ["gos-e"]}]</t>
   </si>
   <si>
     <t>Relationship of preinjury depressive symptoms to outcomes 3 mos after complicated and uncomplicated mild traumatic brain injury.</t>
@@ -388,35 +385,7 @@
     <t>[[" Preinjury depressive symptoms ", " Affective and behavioral problems ", " 177 "], [" Preinjury depressive symptoms ", " Cognitive problems ", " 177 "], [" Preinjury depressive symptoms ", " Mental health-related quality-of-life ", " 177 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["preinjury", "depressive symptom"], "outcome": ["affective", "behavioral", "problem"]}, {"factor": ["preinjury", "depressive symptom"], "outcome": ["cognitive problem"]}, {"factor": ["preinjury", "depressive symptom"], "outcome": ["mental health-related quality-of-life"]}]</t>
-  </si>
-  <si>
-    <t>Long-term outcome in elderly patients after operation for traumatic intracranial hemorrhage.</t>
-  </si>
-  <si>
-    <t>OBJECTIVE: This study examined outcomes in elderly TBI patients who underwent a cranial operation., METHODS: We identified TBI patients &gt; or = 65 who underwent a cranial operation from January 1, 2004 to December 31, 2008. Data collected included: age, admission GCS, mechanism of injury, ISS, Head AIS, type of operation, hemorrhage acuity, time to operation, pre-hospital warfarin or clopidogrel, and in-hospital death. Survivors were contacted by phone to determine an Extended Glasgow Outcome Score (GOSE). A favorable outcome was defined as having a GOSE of &gt; or = 5 at follow-up, an unfavorable outcome was defined as: in-hospital death, death within one year of injury, and a GOSE &lt; 5 at follow-up. Chi-square and student's t-test were used., RESULTS: One hundred sixty-four elderly TBI patients underwent cranial surgery. Mean age was 79.2 +/- 7.6 years. Most patients: had a ground level fall (86.0%), suffered a subdural hematoma (95.1%), and underwent craniotomy (89.0%). Twenty-eight percent died in the hospital and another 20.1% died within one year. Fifty-six patients were eligible for a GOSE interview of these: 17 were lost to follow-up, seven refused the GOSE interview, 22 had a GOSE &gt; or = 5, and ten had a GOSE &lt; 5. Mean follow-up was 42.6 +/- 14.9 months. Of all the factors analyzed, only older age was associated with an unfavorable outcome., CONCLUSIONS: While age was associated with outcome, we were unable to demonstrate any other early factors that were associated with long-term functional outcome in elderly patients that underwent a cranial operation for TBI.</t>
-  </si>
-  <si>
-    <t>{
-  "choices": [
-    {
-      "finish_reason": "stop",
-      "index": 0,
-      "logprobs": null,
-      "text": "\n| --- | --- | --- |\n| Age | Unfavorable outcome | 164 |\n| Admission GCS |  | 164 |\n| Mechanism of injury |  | 164 |\n| ISS |  | 164 |\n| Head AIS |  | 164 |\n| Type of operation |  | 164 |\n| Hemorrhage acuity |  | 164 |\n| Time to operation |  | 164 |\n| Pre-hospital warfarin or clopidogrel |  | 164 |\n| In-hospital death |  | 164 |"
-    }
-  ],
-  "created": 1654226850,
-  "id": "cmpl-5EsGAme2rGmM4I8aMgaiq1GsMWiuT",
-  "model": "text-davinci-002",
-  "object": "text_completion"
-}</t>
-  </si>
-  <si>
-    <t>[[" Age ", " Unfavorable outcome ", " 164 "], [" Admission GCS ", "  ", " 164 "], [" Mechanism of injury ", "  ", " 164 "], [" ISS ", "  ", " 164 "], [" Head AIS ", "  ", " 164 "], [" Type of operation ", "  ", " 164 "], [" Hemorrhage acuity ", "  ", " 164 "], [" Time to operation ", "  ", " 164 "], [" Pre-hospital warfarin or clopidogrel ", "  ", " 164 "], [" In-hospital death ", "  ", " 164 "]]</t>
-  </si>
-  <si>
-    <t>[{"factor": ["age"], "outcome": ["outcome", "unfavorable"]}, {"factor": ["admission", "gcs"], "outcome": []}, {"factor": ["injury", "mechanism"], "outcome": []}, {"factor": ["iss"], "outcome": []}, {"factor": ["ais", "head"], "outcome": []}, {"factor": ["type", "operation"], "outcome": []}, {"factor": ["hemorrhage acuity"], "outcome": []}, {"factor": ["operation", "time"], "outcome": []}, {"factor": ["warfarin", "clopidogrel", "pre-hospital"], "outcome": []}, {"factor": ["in-hospital death"], "outcome": []}]</t>
+    <t>[{"factor": ["preinjury", "depressive symptom"], "outcome": ["problem", "affective", "behavioral"]}, {"factor": ["preinjury", "depressive symptom"], "outcome": ["cognitive problem"]}, {"factor": ["preinjury", "depressive symptom"], "outcome": ["mental health-related quality-of-life"]}]</t>
   </si>
   <si>
     <t>A systematic review of age and gender factors in prolonged post-concussion symptoms after mild head injury.</t>
@@ -472,7 +441,7 @@
     <t>[[" Age ", " TBI surgery outcomes ", " 18,286 "], [" Sex ", " TBI surgery outcomes ", " 18,286 "], [" Deyo-Charlson comorbidity index score ", " TBI surgery outcomes ", " 18,286 "], [" Hospital volume ", " TBI surgery outcomes ", " 18,286 "], [" Surgeon volume ", " TBI surgery outcomes ", " 18,286 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["age"], "outcome": ["surgery", "outcome", "tbi"]}, {"factor": ["sex"], "outcome": ["surgery", "outcome", "tbi"]}, {"factor": ["score", "deyo-charlson comorbidity index"], "outcome": ["surgery", "outcome", "tbi"]}, {"factor": ["hospital volume"], "outcome": ["surgery", "outcome", "tbi"]}, {"factor": ["volume", "surgeon"], "outcome": ["surgery", "outcome", "tbi"]}]</t>
+    <t>[{"factor": ["age"], "outcome": ["surgery", "outcome", "tbi"]}, {"factor": ["sex"], "outcome": ["surgery", "outcome", "tbi"]}, {"factor": ["deyo-charlson comorbidity index", "score"], "outcome": ["surgery", "outcome", "tbi"]}, {"factor": ["hospital volume"], "outcome": ["surgery", "outcome", "tbi"]}, {"factor": ["volume", "surgeon"], "outcome": ["surgery", "outcome", "tbi"]}]</t>
   </si>
   <si>
     <t>Effect of demographic and injury etiologic factors on intensive care unit mortality after severe head injury in a low middle income country.</t>
@@ -500,7 +469,7 @@
     <t>[[" Age ", " ICU mortality ", " 231 "], [" Gender ", " ICU mortality ", " 231 "], [" Injury etiology ", " ICU mortality ", " 231 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["age"], "outcome": ["mortality", "icu"]}, {"factor": ["gender"], "outcome": ["mortality", "icu"]}, {"factor": ["etiology", "injury"], "outcome": ["mortality", "icu"]}]</t>
+    <t>[{"factor": ["age"], "outcome": ["icu", "mortality"]}, {"factor": ["gender"], "outcome": ["icu", "mortality"]}, {"factor": ["injury", "etiology"], "outcome": ["icu", "mortality"]}]</t>
   </si>
   <si>
     <t>CSF and plasma amyloid-beta temporal profiles and relationships with neurological status and mortality after severe traumatic brain injury.</t>
@@ -528,7 +497,7 @@
     <t>[[" Amyloid-beta1-42 (Abeta42) concentrations in cerebrospinal fluid (CSF) ", " Mortality ", " TBI patients "], [" Amyloid-beta1-42 (Abeta42) concentrations in plasma ", " Mortality ", " TBI patients "], [" Changes in CSF Abeta42 concentrations ", " Neurological status ", " TBI patients "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["csf", "concentration"], "outcome": ["mortality"]}, {"factor": ["concentration", "plasma"], "outcome": ["mortality"]}, {"factor": ["abeta42", "csf", "concentration", "change"], "outcome": ["neurological status"]}]</t>
+    <t>[{"factor": ["csf", "concentration", "cerebrospinal fluid"], "outcome": ["mortality"]}, {"factor": ["plasma", "concentration"], "outcome": ["mortality"]}, {"factor": ["concentration", "csf", "change", "abeta42"], "outcome": ["neurological status"]}]</t>
   </si>
   <si>
     <t>Diagnostic and prognostic significance of suPAR in traumatic brain injury.</t>
@@ -556,7 +525,7 @@
     <t>[[" Soluble urokinase plasminogen activator receptor (suPAR) ", " Traumatic brain injury (TBI) ", " 112 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["soluble", "plasminogen activator receptor", "supar", "urokinase"], "outcome": ["tbi"]}]</t>
+    <t>[{"factor": ["plasminogen activator receptor", "urokinase", "soluble", "supar"], "outcome": ["traumatic brain injury", "tbi"]}]</t>
   </si>
   <si>
     <t>Performance of IMPACT, CRASH and Nijmegen models in predicting six month outcome of patients with severe or moderate TBI: an external validation study.</t>
@@ -584,7 +553,7 @@
     <t>[[" IMPACT core and extended models ", " six month unfavourable outcome ", " 778 "], [" CRASH basic models ", " six month unfavourable outcome ", " 778 "], [" Nijmegen models ", " six month unfavourable outcome ", " 778 "], [" IMPACT core and extended models ", " six month mortality ", " 778 "], [" CRASH basic models ", " six month mortality ", " 778 "], [" Nijmegen models ", " six month mortality ", " 778 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["extend", "model", "core", "impact"], "outcome": ["outcome", "month"]}, {"factor": ["basic model", "crash"], "outcome": ["outcome", "month"]}, {"factor": ["nijmegen model"], "outcome": ["outcome", "month"]}, {"factor": ["extend", "model", "core", "impact"], "outcome": ["mortality", "month"]}, {"factor": ["basic model", "crash"], "outcome": ["mortality", "month"]}, {"factor": ["nijmegen model"], "outcome": ["mortality", "month"]}]</t>
+    <t>[{"factor": ["impact", "core", "model", "extend"], "outcome": ["outcome", "month"]}, {"factor": ["crash", "basic model"], "outcome": ["outcome", "month"]}, {"factor": ["nijmegen model"], "outcome": ["outcome", "month"]}, {"factor": ["impact", "core", "model", "extend"], "outcome": ["mortality", "month"]}, {"factor": ["crash", "basic model"], "outcome": ["mortality", "month"]}, {"factor": ["nijmegen model"], "outcome": ["mortality", "month"]}]</t>
   </si>
   <si>
     <t>Predictors of deterioration indicating a requirement for surgery in mild to moderate traumatic brain injury.</t>
@@ -612,7 +581,7 @@
     <t>[[" Coagulopathy and abnormal fibrinolysis ", " Deterioration requiring surgery in mild to moderate traumatic brain injury ", " 54 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["coagulopathy", "abnormal", "fibrinolysis"], "outcome": ["surgery", "deterioration", "traumatic brain injury"]}]</t>
+    <t>[{"factor": ["coagulopathy", "fibrinolysis", "abnormal"], "outcome": ["traumatic brain injury", "surgery", "deterioration"]}]</t>
   </si>
   <si>
     <t>Long-term outcome prediction after a traumatic brain injury using early somatosensory and acoustic evoked potentials: analysis of the predictive value of the different single components of the potentials.</t>
@@ -640,7 +609,7 @@
     <t>[[" Central conduction time (CCT) ", " Long-term clinical outcome ", " 100 "], [" Latency of wave N20 ", " Long-term clinical outcome ", " 100 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["cct", "central conduction time"], "outcome": ["long-term", "clinical outcome"]}, {"factor": ["latency"], "outcome": ["long-term", "clinical outcome"]}]</t>
+    <t>[{"factor": ["cct", "central conduction time"], "outcome": ["clinical outcome", "long-term"]}, {"factor": ["latency"], "outcome": ["clinical outcome", "long-term"]}]</t>
   </si>
   <si>
     <t>The association between admission systolic blood pressure and mortality in significant traumatic brain injury: a multi-centre cohort study.</t>
@@ -668,7 +637,7 @@
     <t>[[" Systolic blood pressure (SBP) ", " Mortality ", " 5057 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["sbp"], "outcome": ["mortality"]}]</t>
+    <t>[{"factor": ["sbp", "systolic blood pressure"], "outcome": ["mortality"]}]</t>
   </si>
   <si>
     <t>Patient-specific thresholds of intracranial pressure in severe traumatic brain injury.</t>
@@ -724,7 +693,7 @@
     <t>[[" TSP-1 levels ", " 1-week mortality ", " 134 "], [" TSP-1 levels ", " 6-month mortality ", " 134 "], [" TSP-1 levels ", " 6-month unfavorable outcome ", " 134 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["tsp-1", "level"], "outcome": ["mortality", "1-week"]}, {"factor": ["tsp-1", "level"], "outcome": ["mortality"]}, {"factor": ["tsp-1", "level"], "outcome": ["outcome", "unfavorable"]}]</t>
+    <t>[{"factor": ["level", "tsp-1"], "outcome": ["1-week", "mortality"]}, {"factor": ["level", "tsp-1"], "outcome": ["mortality"]}, {"factor": ["level", "tsp-1"], "outcome": ["outcome", "unfavorable"]}]</t>
   </si>
   <si>
     <t>Plasma brain-derived neurotrophic factor levels after severe traumatic brain injury.</t>
@@ -752,7 +721,7 @@
     <t>[[" Brain-derived neurotrophic factor (BDNF) plasma levels ", " Intensive care unit (ICU) mortality in patients with severe TBI ", " 120 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["bdnf", "plasma level"], "outcome": ["severe", "patient", "mortality", "tbi", "icu"]}]</t>
+    <t>[{"factor": ["plasma level", "brain-derived neurotrophic factor (bdnf)"], "outcome": ["tbi", "intensive care unit", "mortality", "patient", "icu", "severe"]}]</t>
   </si>
   <si>
     <t>The Application of the CRASH-CT Prognostic Model for Older Adults With Traumatic Brain Injury: A Population-Based Observational Cohort Study.</t>
@@ -780,7 +749,7 @@
     <t>[[" CRASH-CT model ", " Death within 14 days ", " 356 (older) 981 (younger) "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["crash-ct model"], "outcome": ["death", "days"]}]</t>
+    <t>[{"factor": ["crash-ct model"], "outcome": ["days", "death"]}]</t>
   </si>
   <si>
     <t>Timing of withdrawal of life-sustaining therapies in severe traumatic brain injury: Impact on overall mortality.</t>
@@ -808,7 +777,7 @@
     <t>[[" Time to death ", " Withdrawal of life-sustaining therapies ", " 17,505 "], [" Center classification ", " Mortality ", " 108 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["time to death"], "outcome": ["life-sustaining", "withdrawal", "therapy"]}, {"factor": ["center", "classification"], "outcome": ["mortality"]}]</t>
+    <t>[{"factor": ["time to death"], "outcome": ["withdrawal", "life-sustaining", "therapy"]}, {"factor": ["center", "classification"], "outcome": ["mortality"]}]</t>
   </si>
   <si>
     <t>External Validation of the International Mission for Prognosis and Analysis of Clinical Trials in Traumatic Brain Injury: Prognostic Models for Traumatic Brain Injury on the Study of the Neuroprotective Activity of Progesterone in Severe Traumatic Brain I</t>
@@ -836,7 +805,7 @@
     <t>[[" IMPACT prognostic models ", " 6-month mortality and unfavorable outcome in patients with TBI ", " 1124 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["prognostic model", "impact"], "outcome": ["patient", "mortality", "unfavorable outcome", "tbi"]}]</t>
+    <t>[{"factor": ["impact", "prognostic model"], "outcome": ["patient", "tbi", "mortality", "unfavorable outcome"]}]</t>
   </si>
   <si>
     <t>Change of serum levels of thioredoxin in patients with severe traumatic brain injury.</t>
@@ -864,7 +833,7 @@
     <t>[[" Serum TRX concentration ", " 1-week mortality ", " 112 "], [" ", " 6-month mortality ", " 112 "], [" ", " 6-month unfavorable outcome ", " 112 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["serum", "concentration", "trx"], "outcome": ["mortality", "1-week"]}, {"factor": [], "outcome": ["mortality"]}, {"factor": [], "outcome": ["outcome", "unfavorable"]}]</t>
+    <t>[{"factor": ["concentration", "trx", "serum"], "outcome": ["1-week", "mortality"]}, {"factor": [], "outcome": ["mortality"]}, {"factor": [], "outcome": ["outcome", "unfavorable"]}]</t>
   </si>
   <si>
     <t>Olfactory function in acute traumatic brain injury.</t>
@@ -892,7 +861,7 @@
     <t>[[" Glasgow Coma Scale (GCS) ", " TBI severity ", " 63 "], [" Duration of post-traumatic amnesia (PTA) ", " TBI severity ", " 63 "], [" Assault victim vs. victim of falls or motor vehicle collisions ", " Parosmia score ", " 63 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["gcs"], "outcome": ["severity", "tbi"]}, {"factor": ["duration", "pta"], "outcome": ["severity", "tbi"]}, {"factor": ["assault", "motor vehicle collision", "victim of fall", "victim"], "outcome": ["parosmia score"]}]</t>
+    <t>[{"factor": ["glasgow coma scale", "gcs"], "outcome": ["tbi", "severity"]}, {"factor": ["duration", "post-traumatic amnesia", "pta"], "outcome": ["tbi", "severity"]}, {"factor": ["victim of fall", "assault", "victim", "motor vehicle collision"], "outcome": ["parosmia score"]}]</t>
   </si>
   <si>
     <t>The effect of brain injury on the inflammatory response following severe trauma.</t>
@@ -920,7 +889,7 @@
     <t>[[" IL-6 levels ", " Development of septic complications ", " 123 "], [" IL-6 levels ", " Development of multiple organ dysfunction ", " 123 "], [" C-reactive protein levels ", " Development of septic complications ", " 123 "], [" C-reactive protein levels ", " Development of multiple organ dysfunction ", " 123 "], [" Leukocyte counts ", " Development of septic complications ", " 123 "], [" Leukocyte counts ", " Development of multiple organ dysfunction ", " 123 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["il-6", "level"], "outcome": ["septic", "development"]}, {"factor": ["il-6", "level"], "outcome": ["multiple organ dysfunction", "development"]}, {"factor": ["c-reactive protein level"], "outcome": ["septic", "development"]}, {"factor": ["c-reactive protein level"], "outcome": ["multiple organ dysfunction", "development"]}, {"factor": ["leukocyte count"], "outcome": ["septic", "development"]}, {"factor": ["leukocyte count"], "outcome": ["multiple organ dysfunction", "development"]}]</t>
+    <t>[{"factor": ["il-6", "level"], "outcome": ["development", "septic"]}, {"factor": ["il-6", "level"], "outcome": ["development", "multiple organ dysfunction"]}, {"factor": ["c-reactive protein level"], "outcome": ["development", "septic"]}, {"factor": ["c-reactive protein level"], "outcome": ["development", "multiple organ dysfunction"]}, {"factor": ["leukocyte count"], "outcome": ["development", "septic"]}, {"factor": ["leukocyte count"], "outcome": ["development", "multiple organ dysfunction"]}]</t>
   </si>
   <si>
     <t>The Rotterdam Scoring System Can Be Used as an Independent Factor for Predicting Traumatic Brain Injury Outcomes.</t>
@@ -948,7 +917,7 @@
     <t>[[" Rotterdam score ", " Death within 2 weeks ", " 150 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["rotterdam"], "outcome": ["weeks", "death"]}]</t>
+    <t>[{"factor": ["rotterdam"], "outcome": ["death", "weeks"]}]</t>
   </si>
   <si>
     <t>Can Serum Glucose Level in Early Admission Predict Outcome in Patients with Severe Head Trauma?.</t>
@@ -1004,7 +973,7 @@
     <t>[[" PCA of inflammatory mediators after TBI ", " 6-month outcome ", " 111 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["inflammatory mediator", "pca", "tbi"], "outcome": ["outcome"]}]</t>
+    <t>[{"factor": ["inflammatory mediator", "tbi", "pca"], "outcome": ["outcome"]}]</t>
   </si>
   <si>
     <t>Predictors of Outcomes in Traumatic Brain Injury.</t>
@@ -1032,7 +1001,7 @@
     <t>[[" Age ", " Poor outcome ", " 409 "], [" GCS ", " Poor outcome ", " 409 "], [" ISS ", " Poor outcome ", " 409 "], [" Head AIS ", " Poor outcome ", " 409 "], [" Sex ", " Poor outcome ", " 409 "], [" MOT ", " Poor outcome ", " 409 "], [" Lung injury ", " Poor outcome ", " 409 "], [" Lung injury severity ", " Poor outcome ", " 409 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["age"], "outcome": ["poor outcome"]}, {"factor": ["gcs"], "outcome": ["poor outcome"]}, {"factor": ["iss"], "outcome": ["poor outcome"]}, {"factor": ["ais", "head"], "outcome": ["poor outcome"]}, {"factor": ["sex"], "outcome": ["poor outcome"]}, {"factor": ["mot"], "outcome": ["poor outcome"]}, {"factor": ["lung injury"], "outcome": ["poor outcome"]}, {"factor": ["severity", "lung injury"], "outcome": ["poor outcome"]}]</t>
+    <t>[{"factor": ["age"], "outcome": ["poor outcome"]}, {"factor": ["gcs"], "outcome": ["poor outcome"]}, {"factor": ["iss"], "outcome": ["poor outcome"]}, {"factor": ["head", "ais"], "outcome": ["poor outcome"]}, {"factor": ["sex"], "outcome": ["poor outcome"]}, {"factor": ["mot"], "outcome": ["poor outcome"]}, {"factor": ["lung injury"], "outcome": ["poor outcome"]}, {"factor": ["lung injury", "severity"], "outcome": ["poor outcome"]}]</t>
   </si>
   <si>
     <t>Serum biomarkers as predictors of long-term outcome in severe traumatic brain injury: analysis from a randomized placebo-controlled Phase II clinical trial.</t>
@@ -1060,7 +1029,7 @@
     <t>[[" IL-6 ", " Favorable GOS score at 1 year ", " 86 "], [" Pg ", " Favorable GOS score at 1 year ", " 86 "], [" GFAP ", " Unfavorable GOS score at 1 year ", " 86 "], [" IL-6 ", " Survival status at 1 year ", " 86 "], [" Pg ", " Survival status at 1 year ", " 86 "], [" GFAP ", " Survival status at 1 year ", " 86 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["il-6"], "outcome": ["year", "favorable", "gos"]}, {"factor": ["pg"], "outcome": ["year", "favorable", "gos"]}, {"factor": ["gfap"], "outcome": ["unfavorable", "year", "score", "gos"]}, {"factor": ["il-6"], "outcome": ["year", "survival status"]}, {"factor": ["pg"], "outcome": ["year", "survival status"]}, {"factor": ["gfap"], "outcome": ["year", "survival status"]}]</t>
+    <t>[{"factor": ["il-6"], "outcome": ["year", "favorable", "gos"]}, {"factor": ["pg"], "outcome": ["year", "favorable", "gos"]}, {"factor": ["gfap"], "outcome": ["year", "score", "gos", "unfavorable"]}, {"factor": ["il-6"], "outcome": ["year", "survival status"]}, {"factor": ["pg"], "outcome": ["year", "survival status"]}, {"factor": ["gfap"], "outcome": ["year", "survival status"]}]</t>
   </si>
   <si>
     <t>Diffusion tensor imaging in acute-to-subacute traumatic brain injury: a longitudinal analysis.</t>
@@ -1088,7 +1057,7 @@
     <t>[[" Acute FA ", " DRS score ", " 11 "], [" Subacute FA ", " DRS score ", " 11 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["acute"], "outcome": ["score", "drs"]}, {"factor": ["fa", "subacute"], "outcome": ["score", "drs"]}]</t>
+    <t>[{"factor": ["acute"], "outcome": ["drs", "score"]}, {"factor": ["fa", "subacute"], "outcome": ["drs", "score"]}]</t>
   </si>
   <si>
     <t>Complications following hospital admission for traumatic brain injury: A multicenter cohort study.</t>
@@ -1116,7 +1085,7 @@
     <t>[[" Mechanical ventilation ", " Neurological complications ", " 12,887 "], [" Head injury severity ", " Neurological complications ", " 12,887 "], [" Blood transfusion ", " Neurological complications ", " 12,887 "], [" Neurosurgical intervention ", " Neurological complications ", " 12,887 "], [" Mechanical ventilation ", " Non-neurological complications ", " 12,887 "], [" Glasgow Coma Scale ", " Non-neurological complications ", " 12,887 "], [" Blood transfusion ", " Non-neurological complications ", " 12,887 "], [" Concomitant injuries ", " Non-neurological complications ", " 12,887 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["mechanical ventilation"], "outcome": ["neurological"]}, {"factor": ["severity", "head injury"], "outcome": ["neurological"]}, {"factor": ["blood transfusion"], "outcome": ["neurological"]}, {"factor": ["neurosurgical intervention"], "outcome": ["neurological"]}, {"factor": ["mechanical ventilation"], "outcome": ["non-neurological", "complication"]}, {"factor": ["glasgow coma scale"], "outcome": ["non-neurological", "complication"]}, {"factor": ["blood transfusion"], "outcome": ["non-neurological", "complication"]}, {"factor": ["injury", "concomitant"], "outcome": ["non-neurological", "complication"]}]</t>
+    <t>[{"factor": ["mechanical ventilation"], "outcome": ["neurological"]}, {"factor": ["head injury", "severity"], "outcome": ["neurological"]}, {"factor": ["blood transfusion"], "outcome": ["neurological"]}, {"factor": ["neurosurgical intervention"], "outcome": ["neurological"]}, {"factor": ["mechanical ventilation"], "outcome": ["complication", "non-neurological"]}, {"factor": ["glasgow coma scale"], "outcome": ["complication", "non-neurological"]}, {"factor": ["blood transfusion"], "outcome": ["complication", "non-neurological"]}, {"factor": ["injury", "concomitant"], "outcome": ["complication", "non-neurological"]}]</t>
   </si>
   <si>
     <t>Management and outcome of traumatic brain injury patients at Muhimbili Orthopaedic Institute Dar es Salaam, Tanzania.</t>
@@ -1200,10 +1169,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1507,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1912,10 +1884,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
         <v>70</v>
@@ -1941,10 +1913,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
         <v>75</v>
@@ -1970,10 +1942,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
         <v>80</v>
@@ -1999,10 +1971,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
         <v>85</v>
@@ -2028,10 +2000,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
         <v>90</v>
@@ -2057,10 +2029,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
         <v>95</v>
@@ -2086,10 +2058,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
         <v>100</v>
@@ -2115,10 +2087,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
         <v>105</v>
@@ -2144,10 +2116,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
         <v>110</v>
@@ -2173,10 +2145,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
         <v>115</v>
@@ -2202,10 +2174,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
         <v>120</v>
@@ -2231,10 +2203,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
         <v>125</v>
@@ -2260,10 +2232,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
         <v>130</v>
@@ -2289,10 +2261,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
         <v>135</v>
@@ -2318,10 +2290,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s">
         <v>140</v>
@@ -2342,15 +2314,15 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
         <v>145</v>
@@ -2361,7 +2333,7 @@
       <c r="G29" t="s">
         <v>11</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="2" t="s">
         <v>147</v>
       </c>
       <c r="I29" t="s">
@@ -2376,10 +2348,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
         <v>150</v>
@@ -2405,10 +2377,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E31" t="s">
         <v>155</v>
@@ -2434,10 +2406,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s">
         <v>160</v>
@@ -2463,10 +2435,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E33" t="s">
         <v>165</v>
@@ -2492,10 +2464,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E34" t="s">
         <v>170</v>
@@ -2521,10 +2493,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C35">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E35" t="s">
         <v>175</v>
@@ -2550,10 +2522,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s">
         <v>180</v>
@@ -2579,10 +2551,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s">
         <v>185</v>
@@ -2608,10 +2580,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C38">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E38" t="s">
         <v>190</v>
@@ -2637,10 +2609,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C39">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
         <v>195</v>
@@ -2661,37 +2633,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>33</v>
-      </c>
-      <c r="C40">
-        <v>33</v>
-      </c>
-      <c r="E40" t="s">
-        <v>200</v>
-      </c>
-      <c r="F40" t="s">
-        <v>201</v>
-      </c>
-      <c r="G40" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" t="s">
-        <v>202</v>
-      </c>
-      <c r="I40" t="s">
-        <v>203</v>
-      </c>
-      <c r="J40" t="s">
-        <v>204</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J40" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>